--- a/batches/23/week_03/day_12/day_12.xlsx
+++ b/batches/23/week_03/day_12/day_12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/23/week_03/day_12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC283F4D-2A69-A547-9C93-271CEAD11D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C0C65A8-CE3B-7B4E-9611-A8CB6F415E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{54D7ED2C-F3AB-6D42-A144-7A5B423AEAB8}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{54D7ED2C-F3AB-6D42-A144-7A5B423AEAB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Recap" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Correlated Subqueries" sheetId="3" r:id="rId3"/>
     <sheet name="Any_Some_All_Operators" sheetId="4" r:id="rId4"/>
     <sheet name="CTEs" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
   <si>
     <t>Rahul</t>
   </si>
@@ -109,13 +110,269 @@
   </si>
   <si>
     <t>spro</t>
+  </si>
+  <si>
+    <t>Better Readability</t>
+  </si>
+  <si>
+    <t>Reuse same logic</t>
+  </si>
+  <si>
+    <t>cust_id</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>total_spend</t>
+  </si>
+  <si>
+    <t>avg_spent</t>
+  </si>
+  <si>
+    <t>avg_city_spend</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>Imphal</t>
+  </si>
+  <si>
+    <t>Bilaspur</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
+  </si>
+  <si>
+    <t>Puri</t>
+  </si>
+  <si>
+    <t>Bhubaneswar</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
+    <t>Gandhinagar</t>
+  </si>
+  <si>
+    <t>Rajkot</t>
+  </si>
+  <si>
+    <t>Muzaffarpur</t>
+  </si>
+  <si>
+    <t>Udupi</t>
+  </si>
+  <si>
+    <t>Aizawl</t>
+  </si>
+  <si>
+    <t>Udaipur</t>
+  </si>
+  <si>
+    <t>Jamshedpur</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>Srinagar</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Prayagraj</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Leh</t>
+  </si>
+  <si>
+    <t>Trichy</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Patiala</t>
+  </si>
+  <si>
+    <t>Shimla</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
+    <t>Siliguri</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>Agartala</t>
+  </si>
+  <si>
+    <t>Jodhpur</t>
+  </si>
+  <si>
+    <t>Mysuru</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Meerut</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Rourkela</t>
+  </si>
+  <si>
+    <t>Gwalior</t>
+  </si>
+  <si>
+    <t>Dhanbad</t>
+  </si>
+  <si>
+    <t>Karimnagar</t>
+  </si>
+  <si>
+    <t>Warangal</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Port Blair</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Ludhiana</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Cuttack</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Ranchi</t>
+  </si>
+  <si>
+    <t>Varanasi</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Nashik</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Gaya</t>
+  </si>
+  <si>
+    <t>Amritsar</t>
+  </si>
+  <si>
+    <t>Guwahati</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Shillong</t>
+  </si>
+  <si>
+    <t>Erode</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>Howrah</t>
+  </si>
+  <si>
+    <t>Madurai</t>
+  </si>
+  <si>
+    <t>Haridwar</t>
+  </si>
+  <si>
+    <t>total_spent</t>
+  </si>
+  <si>
+    <t>customer_city</t>
+  </si>
+  <si>
+    <t>stores_city</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,17 +410,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -790,8 +1057,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>169810</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Ink 7">
@@ -810,7 +1077,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Ink 7">
@@ -855,8 +1122,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>68596</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Ink 8">
@@ -875,7 +1142,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Ink 8">
@@ -920,8 +1187,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>131563</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Ink 9">
@@ -940,7 +1207,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Ink 9">
@@ -985,8 +1252,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>128006</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Ink 10">
@@ -1005,7 +1272,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Ink 10">
@@ -1050,8 +1317,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>30850</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Ink 13">
@@ -1070,7 +1337,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Ink 13">
@@ -1115,8 +1382,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>175134</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Ink 16">
@@ -1135,7 +1402,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Ink 16">
@@ -1757,8 +2024,8 @@
       <xdr:rowOff>186051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>222111</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>806311</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>39590</xdr:rowOff>
     </xdr:to>
@@ -2989,8 +3256,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>376518</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>795618</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>161802</xdr:rowOff>
     </xdr:to>
@@ -3033,8 +3300,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>92324</xdr:rowOff>
     </xdr:to>
@@ -3077,8 +3344,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>17680</xdr:rowOff>
     </xdr:to>
@@ -3121,8 +3388,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>222015</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>641115</xdr:colOff>
       <xdr:row>170</xdr:row>
       <xdr:rowOff>45626</xdr:rowOff>
     </xdr:to>
@@ -3149,6 +3416,275 @@
         <a:xfrm>
           <a:off x="823148" y="26587685"/>
           <a:ext cx="6807200" cy="7442200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>150618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0882997-B3D8-4105-ECA0-FB48AF12E7B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="844550" y="36010850"/>
+          <a:ext cx="7772400" cy="512568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA7D661C-AE7C-8088-75C1-C7721F26F5F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="35966400"/>
+          <a:ext cx="7683500" cy="9740900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>155349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF29E5E-D599-4290-ADD1-BE828979D5AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="45923200"/>
+          <a:ext cx="7772400" cy="561749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>104050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEC6555-40A1-A719-D1A7-2F1479AE8D6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="63195200"/>
+          <a:ext cx="7772400" cy="7622450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>102754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740050E8-AA6E-1C81-64FF-055423612289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="70808850"/>
+          <a:ext cx="7772400" cy="4681104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>108215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9C37A54-48D4-4604-A732-68A0F2E31D50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="203200"/>
+          <a:ext cx="7772400" cy="6001015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3907,13 +4443,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF106C8-D0BD-7842-85E4-6B4938518E9C}">
-  <dimension ref="J4:K39"/>
+  <dimension ref="B4:M310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K140" sqref="K140"/>
+    <sheetView topLeftCell="A348" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="K346" sqref="K346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
@@ -3925,8 +4467,1526 @@
         <v>22</v>
       </c>
     </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" t="s">
+        <v>26</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="G232" t="s">
+        <v>25</v>
+      </c>
+      <c r="H232" t="s">
+        <v>29</v>
+      </c>
+      <c r="I232" t="s">
+        <v>30</v>
+      </c>
+      <c r="K232" t="s">
+        <v>26</v>
+      </c>
+      <c r="L232" t="s">
+        <v>29</v>
+      </c>
+      <c r="M232" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>100</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233">
+        <v>400</v>
+      </c>
+      <c r="I233">
+        <f>400/3</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>200</v>
+      </c>
+      <c r="M233">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>200</v>
+      </c>
+      <c r="G234">
+        <v>2</v>
+      </c>
+      <c r="H234">
+        <v>700</v>
+      </c>
+      <c r="I234">
+        <v>350</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>200</v>
+      </c>
+      <c r="M234">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>100</v>
+      </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
+      <c r="H235">
+        <v>300</v>
+      </c>
+      <c r="I235">
+        <v>300</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+      <c r="L235">
+        <v>1000</v>
+      </c>
+      <c r="M235">
+        <f>1000/3</f>
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+      <c r="D236">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>26</v>
+      </c>
+      <c r="C240" t="s">
+        <v>31</v>
+      </c>
+      <c r="E240" t="s">
+        <v>26</v>
+      </c>
+      <c r="F240" t="s">
+        <v>102</v>
+      </c>
+      <c r="I240" t="s">
+        <v>25</v>
+      </c>
+      <c r="J240" t="s">
+        <v>103</v>
+      </c>
+      <c r="K240" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>32</v>
+      </c>
+      <c r="C241">
+        <v>1014770.95983379</v>
+      </c>
+      <c r="E241" t="s">
+        <v>64</v>
+      </c>
+      <c r="F241" s="3">
+        <v>332704.47859216802</v>
+      </c>
+      <c r="G241" s="3">
+        <f>VLOOKUP(E241,$B$240:$C$310,2,0)</f>
+        <v>1012365.83646586</v>
+      </c>
+      <c r="I241" s="2">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>33</v>
+      </c>
+      <c r="C242">
+        <v>948990.8444539</v>
+      </c>
+      <c r="E242" t="s">
+        <v>65</v>
+      </c>
+      <c r="F242" s="3">
+        <v>337975.55502526398</v>
+      </c>
+      <c r="G242" s="3">
+        <f t="shared" ref="G242:G305" si="0">VLOOKUP(E242,$B$240:$C$310,2,0)</f>
+        <v>1048109.37790598</v>
+      </c>
+      <c r="I242" s="2">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>2</v>
+      </c>
+      <c r="K242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>34</v>
+      </c>
+      <c r="C243">
+        <v>978749.66653116501</v>
+      </c>
+      <c r="E243" t="s">
+        <v>66</v>
+      </c>
+      <c r="F243" s="3">
+        <v>340097.262680115</v>
+      </c>
+      <c r="G243" s="3">
+        <f t="shared" si="0"/>
+        <v>1017359.9150862</v>
+      </c>
+      <c r="I243" s="2">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>35</v>
+      </c>
+      <c r="C244">
+        <v>998979.54460526304</v>
+      </c>
+      <c r="E244" t="s">
+        <v>32</v>
+      </c>
+      <c r="F244" s="3">
+        <v>337012.25068997202</v>
+      </c>
+      <c r="G244" s="3">
+        <f t="shared" si="0"/>
+        <v>1014770.95983379</v>
+      </c>
+      <c r="I244" s="4">
+        <v>2</v>
+      </c>
+      <c r="J244">
+        <v>3</v>
+      </c>
+      <c r="K244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>36</v>
+      </c>
+      <c r="C245">
+        <v>997854.83387573902</v>
+      </c>
+      <c r="E245" t="s">
+        <v>67</v>
+      </c>
+      <c r="F245" s="3">
+        <v>334513.25924593298</v>
+      </c>
+      <c r="G245" s="3">
+        <f t="shared" si="0"/>
+        <v>1014540.21376681</v>
+      </c>
+      <c r="I245">
+        <v>3</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>37</v>
+      </c>
+      <c r="C246">
+        <v>999454.26265077095</v>
+      </c>
+      <c r="E246" t="s">
+        <v>68</v>
+      </c>
+      <c r="F246" s="3">
+        <v>324099.92240396998</v>
+      </c>
+      <c r="G246" s="3">
+        <f t="shared" si="0"/>
+        <v>1012047.87090296</v>
+      </c>
+      <c r="I246" s="4">
+        <v>2</v>
+      </c>
+      <c r="J246">
+        <v>3</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>38</v>
+      </c>
+      <c r="C247">
+        <v>972913.10952789604</v>
+      </c>
+      <c r="E247" t="s">
+        <v>69</v>
+      </c>
+      <c r="F247" s="3">
+        <v>337795.55308926699</v>
+      </c>
+      <c r="G247" s="3">
+        <f t="shared" si="0"/>
+        <v>1006822.62011958</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>39</v>
+      </c>
+      <c r="C248">
+        <v>1023091.64085076</v>
+      </c>
+      <c r="E248" t="s">
+        <v>33</v>
+      </c>
+      <c r="F248" s="3">
+        <v>330063.41654662002</v>
+      </c>
+      <c r="G248" s="3">
+        <f t="shared" si="0"/>
+        <v>948990.8444539</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>40</v>
+      </c>
+      <c r="C249">
+        <v>1016912.4139154101</v>
+      </c>
+      <c r="E249" t="s">
+        <v>34</v>
+      </c>
+      <c r="F249" s="3">
+        <v>332558.588351749</v>
+      </c>
+      <c r="G249" s="3">
+        <f t="shared" si="0"/>
+        <v>978749.66653116501</v>
+      </c>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>41</v>
+      </c>
+      <c r="C250">
+        <v>1041404.28955202</v>
+      </c>
+      <c r="E250" t="s">
+        <v>70</v>
+      </c>
+      <c r="F250" s="3">
+        <v>339262.88456391299</v>
+      </c>
+      <c r="G250" s="3">
+        <f t="shared" si="0"/>
+        <v>1018258.54688365</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>42</v>
+      </c>
+      <c r="C251">
+        <v>1002989.59847457</v>
+      </c>
+      <c r="E251" t="s">
+        <v>35</v>
+      </c>
+      <c r="F251" s="3">
+        <v>328242.30605274503</v>
+      </c>
+      <c r="G251" s="3">
+        <f t="shared" si="0"/>
+        <v>998979.54460526304</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>43</v>
+      </c>
+      <c r="C252">
+        <v>954292.23629898403</v>
+      </c>
+      <c r="E252" t="s">
+        <v>71</v>
+      </c>
+      <c r="F252" s="3">
+        <v>329411.05598915898</v>
+      </c>
+      <c r="G252" s="3">
+        <f t="shared" si="0"/>
+        <v>988233.16796747898</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>44</v>
+      </c>
+      <c r="C253">
+        <v>943207.49938202195</v>
+      </c>
+      <c r="E253" t="s">
+        <v>72</v>
+      </c>
+      <c r="F253" s="3">
+        <v>342928.67840835202</v>
+      </c>
+      <c r="G253" s="3">
+        <f t="shared" si="0"/>
+        <v>1010959.37341997</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>45</v>
+      </c>
+      <c r="C254">
+        <v>1018964.8707232201</v>
+      </c>
+      <c r="E254" t="s">
+        <v>74</v>
+      </c>
+      <c r="F254" s="3">
+        <v>339488.75485990301</v>
+      </c>
+      <c r="G254" s="3">
+        <f t="shared" si="0"/>
+        <v>998212.67409090896</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>46</v>
+      </c>
+      <c r="C255">
+        <v>1005201.48808275</v>
+      </c>
+      <c r="E255" t="s">
+        <v>73</v>
+      </c>
+      <c r="F255" s="3">
+        <v>345220.03769976902</v>
+      </c>
+      <c r="G255" s="3">
+        <f t="shared" si="0"/>
+        <v>1046780.64652661</v>
+      </c>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>47</v>
+      </c>
+      <c r="C256">
+        <v>1045611.62831724</v>
+      </c>
+      <c r="E256" t="s">
+        <v>75</v>
+      </c>
+      <c r="F256" s="3">
+        <v>333981.173908778</v>
+      </c>
+      <c r="G256" s="3">
+        <f t="shared" si="0"/>
+        <v>998515.56246334303</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>48</v>
+      </c>
+      <c r="C257">
+        <v>1000464.78400576</v>
+      </c>
+      <c r="E257" t="s">
+        <v>36</v>
+      </c>
+      <c r="F257" s="3">
+        <v>339652.501359516</v>
+      </c>
+      <c r="G257" s="3">
+        <f t="shared" si="0"/>
+        <v>997854.83387573902</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>49</v>
+      </c>
+      <c r="C258">
+        <v>1018215.43342068</v>
+      </c>
+      <c r="E258" t="s">
+        <v>37</v>
+      </c>
+      <c r="F258" s="3">
+        <v>340148.395832935</v>
+      </c>
+      <c r="G258" s="3">
+        <f t="shared" si="0"/>
+        <v>999454.26265077095</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>50</v>
+      </c>
+      <c r="C259">
+        <v>998654.35940852796</v>
+      </c>
+      <c r="E259" t="s">
+        <v>76</v>
+      </c>
+      <c r="F259" s="3">
+        <v>335244.73032670398</v>
+      </c>
+      <c r="G259" s="3">
+        <f t="shared" si="0"/>
+        <v>987499.12196652696</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>51</v>
+      </c>
+      <c r="C260">
+        <v>1007228.23814147</v>
+      </c>
+      <c r="E260" t="s">
+        <v>77</v>
+      </c>
+      <c r="F260" s="3">
+        <v>337000.43814555003</v>
+      </c>
+      <c r="G260" s="3">
+        <f t="shared" si="0"/>
+        <v>1060273.10263448</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>52</v>
+      </c>
+      <c r="C261">
+        <v>992435.52283783699</v>
+      </c>
+      <c r="E261" t="s">
+        <v>38</v>
+      </c>
+      <c r="F261" s="3">
+        <v>337501.86777171202</v>
+      </c>
+      <c r="G261" s="3">
+        <f t="shared" si="0"/>
+        <v>972913.10952789604</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>53</v>
+      </c>
+      <c r="C262">
+        <v>1026708.6896448</v>
+      </c>
+      <c r="E262" t="s">
+        <v>78</v>
+      </c>
+      <c r="F262" s="3">
+        <v>338690.32788840699</v>
+      </c>
+      <c r="G262" s="3">
+        <f t="shared" si="0"/>
+        <v>1032459.22533724</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>54</v>
+      </c>
+      <c r="C263">
+        <v>986744.26336032304</v>
+      </c>
+      <c r="E263" t="s">
+        <v>79</v>
+      </c>
+      <c r="F263" s="3">
+        <v>339775.79584481101</v>
+      </c>
+      <c r="G263" s="3">
+        <f t="shared" si="0"/>
+        <v>1012355.24398084</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>55</v>
+      </c>
+      <c r="C264">
+        <v>1017637.13514044</v>
+      </c>
+      <c r="E264" t="s">
+        <v>80</v>
+      </c>
+      <c r="F264" s="3">
+        <v>333500.61492373602</v>
+      </c>
+      <c r="G264" s="3">
+        <f t="shared" si="0"/>
+        <v>986860.77589562698</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>56</v>
+      </c>
+      <c r="C265">
+        <v>1022262.57957241</v>
+      </c>
+      <c r="E265" t="s">
+        <v>39</v>
+      </c>
+      <c r="F265" s="3">
+        <v>340555.574043639</v>
+      </c>
+      <c r="G265" s="3">
+        <f t="shared" si="0"/>
+        <v>1023091.64085076</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>57</v>
+      </c>
+      <c r="C266">
+        <v>1004813.20527967</v>
+      </c>
+      <c r="E266" t="s">
+        <v>40</v>
+      </c>
+      <c r="F266" s="3">
+        <v>334108.82985208399</v>
+      </c>
+      <c r="G266" s="3">
+        <f t="shared" si="0"/>
+        <v>1016912.4139154101</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>58</v>
+      </c>
+      <c r="C267">
+        <v>1014256.76662618</v>
+      </c>
+      <c r="E267" t="s">
+        <v>81</v>
+      </c>
+      <c r="F267" s="3">
+        <v>333119.64945065603</v>
+      </c>
+      <c r="G267" s="3">
+        <f t="shared" si="0"/>
+        <v>1025789.10017964</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>59</v>
+      </c>
+      <c r="C268">
+        <v>1009740.50627644</v>
+      </c>
+      <c r="E268" t="s">
+        <v>82</v>
+      </c>
+      <c r="F268" s="3">
+        <v>337146.94124361902</v>
+      </c>
+      <c r="G268" s="3">
+        <f t="shared" si="0"/>
+        <v>1023312.1949014</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>60</v>
+      </c>
+      <c r="C269">
+        <v>1020478.49363067</v>
+      </c>
+      <c r="E269" t="s">
+        <v>83</v>
+      </c>
+      <c r="F269" s="3">
+        <v>338263.52509737498</v>
+      </c>
+      <c r="G269" s="3">
+        <f t="shared" si="0"/>
+        <v>1034946.17393782</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>61</v>
+      </c>
+      <c r="C270">
+        <v>999166.87260928901</v>
+      </c>
+      <c r="E270" t="s">
+        <v>41</v>
+      </c>
+      <c r="F270" s="3">
+        <v>343822.40857347299</v>
+      </c>
+      <c r="G270" s="3">
+        <f t="shared" si="0"/>
+        <v>1041404.28955202</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>62</v>
+      </c>
+      <c r="C271">
+        <v>1020447.04983516</v>
+      </c>
+      <c r="E271" t="s">
+        <v>84</v>
+      </c>
+      <c r="F271" s="3">
+        <v>333032.06388838799</v>
+      </c>
+      <c r="G271" s="3">
+        <f t="shared" si="0"/>
+        <v>1027773.95272222</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>63</v>
+      </c>
+      <c r="C272">
+        <v>999699.35908579396</v>
+      </c>
+      <c r="E272" t="s">
+        <v>42</v>
+      </c>
+      <c r="F272" s="3">
+        <v>334015.35076199402</v>
+      </c>
+      <c r="G272" s="3">
+        <f t="shared" si="0"/>
+        <v>1002989.59847457</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>64</v>
+      </c>
+      <c r="C273">
+        <v>1012365.83646586</v>
+      </c>
+      <c r="E273" t="s">
+        <v>85</v>
+      </c>
+      <c r="F273" s="3">
+        <v>342076.72773814801</v>
+      </c>
+      <c r="G273" s="3">
+        <f t="shared" si="0"/>
+        <v>1019784.5921130501</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>65</v>
+      </c>
+      <c r="C274">
+        <v>1048109.37790598</v>
+      </c>
+      <c r="E274" t="s">
+        <v>43</v>
+      </c>
+      <c r="F274" s="3">
+        <v>337010.43096360803</v>
+      </c>
+      <c r="G274" s="3">
+        <f t="shared" si="0"/>
+        <v>954292.23629898403</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>66</v>
+      </c>
+      <c r="C275">
+        <v>1017359.9150862</v>
+      </c>
+      <c r="E275" t="s">
+        <v>86</v>
+      </c>
+      <c r="F275" s="3">
+        <v>341075.70457107801</v>
+      </c>
+      <c r="G275" s="3">
+        <f t="shared" si="0"/>
+        <v>1027002.85952029</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>67</v>
+      </c>
+      <c r="C276">
+        <v>1014540.21376681</v>
+      </c>
+      <c r="E276" t="s">
+        <v>87</v>
+      </c>
+      <c r="F276" s="3">
+        <v>339302.87546341401</v>
+      </c>
+      <c r="G276" s="3">
+        <f t="shared" si="0"/>
+        <v>1012475.8292576401</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
+        <v>68</v>
+      </c>
+      <c r="C277">
+        <v>1012047.87090296</v>
+      </c>
+      <c r="E277" t="s">
+        <v>44</v>
+      </c>
+      <c r="F277" s="3">
+        <v>333945.17133764201</v>
+      </c>
+      <c r="G277" s="3">
+        <f t="shared" si="0"/>
+        <v>943207.49938202195</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>69</v>
+      </c>
+      <c r="C278">
+        <v>1006822.62011958</v>
+      </c>
+      <c r="E278" t="s">
+        <v>46</v>
+      </c>
+      <c r="F278" s="3">
+        <v>331109.07717401098</v>
+      </c>
+      <c r="G278" s="3">
+        <f t="shared" si="0"/>
+        <v>1005201.48808275</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>70</v>
+      </c>
+      <c r="C279">
+        <v>1018258.54688365</v>
+      </c>
+      <c r="E279" t="s">
+        <v>45</v>
+      </c>
+      <c r="F279" s="3">
+        <v>342994.26125936297</v>
+      </c>
+      <c r="G279" s="3">
+        <f t="shared" si="0"/>
+        <v>1018964.8707232201</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
+        <v>71</v>
+      </c>
+      <c r="C280">
+        <v>988233.16796747898</v>
+      </c>
+      <c r="E280" t="s">
+        <v>47</v>
+      </c>
+      <c r="F280" s="3">
+        <v>333950.850453744</v>
+      </c>
+      <c r="G280" s="3">
+        <f t="shared" si="0"/>
+        <v>1045611.62831724</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>72</v>
+      </c>
+      <c r="C281">
+        <v>1010959.37341997</v>
+      </c>
+      <c r="E281" t="s">
+        <v>88</v>
+      </c>
+      <c r="F281" s="3">
+        <v>343579.72059348499</v>
+      </c>
+      <c r="G281" s="3">
+        <f t="shared" si="0"/>
+        <v>1046144.23077445</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>73</v>
+      </c>
+      <c r="C282">
+        <v>1046780.64652661</v>
+      </c>
+      <c r="E282" t="s">
+        <v>48</v>
+      </c>
+      <c r="F282" s="3">
+        <v>332211.75124401902</v>
+      </c>
+      <c r="G282" s="3">
+        <f t="shared" si="0"/>
+        <v>1000464.78400576</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
+        <v>74</v>
+      </c>
+      <c r="C283">
+        <v>998212.67409090896</v>
+      </c>
+      <c r="E283" t="s">
+        <v>49</v>
+      </c>
+      <c r="F283" s="3">
+        <v>337080.45170319598</v>
+      </c>
+      <c r="G283" s="3">
+        <f t="shared" si="0"/>
+        <v>1018215.43342068</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
+        <v>75</v>
+      </c>
+      <c r="C284">
+        <v>998515.56246334303</v>
+      </c>
+      <c r="E284" t="s">
+        <v>89</v>
+      </c>
+      <c r="F284" s="3">
+        <v>331661.77002238098</v>
+      </c>
+      <c r="G284" s="3">
+        <f t="shared" si="0"/>
+        <v>1017764.27778846</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>76</v>
+      </c>
+      <c r="C285">
+        <v>987499.12196652696</v>
+      </c>
+      <c r="E285" t="s">
+        <v>50</v>
+      </c>
+      <c r="F285" s="3">
+        <v>336432.67807692301</v>
+      </c>
+      <c r="G285" s="3">
+        <f t="shared" si="0"/>
+        <v>998654.35940852796</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
+        <v>77</v>
+      </c>
+      <c r="C286">
+        <v>1060273.10263448</v>
+      </c>
+      <c r="E286" t="s">
+        <v>90</v>
+      </c>
+      <c r="F286" s="3">
+        <v>336038.12738636299</v>
+      </c>
+      <c r="G286" s="3">
+        <f t="shared" si="0"/>
+        <v>1010610.9507132201</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>78</v>
+      </c>
+      <c r="C287">
+        <v>1032459.22533724</v>
+      </c>
+      <c r="E287" t="s">
+        <v>91</v>
+      </c>
+      <c r="F287" s="3">
+        <v>335941.27467117901</v>
+      </c>
+      <c r="G287" s="3">
+        <f t="shared" si="0"/>
+        <v>996738.24393113295</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
+        <v>79</v>
+      </c>
+      <c r="C288">
+        <v>1012355.24398084</v>
+      </c>
+      <c r="E288" t="s">
+        <v>92</v>
+      </c>
+      <c r="F288" s="3">
+        <v>338431.72001946397</v>
+      </c>
+      <c r="G288" s="3">
+        <f t="shared" si="0"/>
+        <v>1018268.20591508</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>80</v>
+      </c>
+      <c r="C289">
+        <v>986860.77589562698</v>
+      </c>
+      <c r="E289" t="s">
+        <v>51</v>
+      </c>
+      <c r="F289" s="3">
+        <v>324636.37000446999</v>
+      </c>
+      <c r="G289" s="3">
+        <f t="shared" si="0"/>
+        <v>1007228.23814147</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>81</v>
+      </c>
+      <c r="C290">
+        <v>1025789.10017964</v>
+      </c>
+      <c r="E290" t="s">
+        <v>52</v>
+      </c>
+      <c r="F290" s="3">
+        <v>336573.00041246501</v>
+      </c>
+      <c r="G290" s="3">
+        <f t="shared" si="0"/>
+        <v>992435.52283783699</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>82</v>
+      </c>
+      <c r="C291">
+        <v>1023312.1949014</v>
+      </c>
+      <c r="E291" t="s">
+        <v>93</v>
+      </c>
+      <c r="F291" s="3">
+        <v>340706.57424212497</v>
+      </c>
+      <c r="G291" s="3">
+        <f t="shared" si="0"/>
+        <v>1009206.6455685101</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>83</v>
+      </c>
+      <c r="C292">
+        <v>1034946.17393782</v>
+      </c>
+      <c r="E292" t="s">
+        <v>53</v>
+      </c>
+      <c r="F292" s="3">
+        <v>340222.16424626502</v>
+      </c>
+      <c r="G292" s="3">
+        <f t="shared" si="0"/>
+        <v>1026708.6896448</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>84</v>
+      </c>
+      <c r="C293">
+        <v>1027773.95272222</v>
+      </c>
+      <c r="E293" t="s">
+        <v>94</v>
+      </c>
+      <c r="F293" s="3">
+        <v>339720.593652946</v>
+      </c>
+      <c r="G293" s="3">
+        <f t="shared" si="0"/>
+        <v>1005987.0210941799</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>85</v>
+      </c>
+      <c r="C294">
+        <v>1019784.5921130501</v>
+      </c>
+      <c r="E294" t="s">
+        <v>95</v>
+      </c>
+      <c r="F294" s="3">
+        <v>339364.28121268598</v>
+      </c>
+      <c r="G294" s="3">
+        <f t="shared" si="0"/>
+        <v>1019043.44386554</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>86</v>
+      </c>
+      <c r="C295">
+        <v>1027002.85952029</v>
+      </c>
+      <c r="E295" t="s">
+        <v>54</v>
+      </c>
+      <c r="F295" s="3">
+        <v>336482.97245743201</v>
+      </c>
+      <c r="G295" s="3">
+        <f t="shared" si="0"/>
+        <v>986744.26336032304</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>87</v>
+      </c>
+      <c r="C296">
+        <v>1012475.8292576401</v>
+      </c>
+      <c r="E296" t="s">
+        <v>55</v>
+      </c>
+      <c r="F296" s="3">
+        <v>346844.25094303401</v>
+      </c>
+      <c r="G296" s="3">
+        <f t="shared" si="0"/>
+        <v>1017637.13514044</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>88</v>
+      </c>
+      <c r="C297">
+        <v>1046144.23077445</v>
+      </c>
+      <c r="E297" t="s">
+        <v>96</v>
+      </c>
+      <c r="F297" s="3">
+        <v>338537.41504540801</v>
+      </c>
+      <c r="G297" s="3">
+        <f t="shared" si="0"/>
+        <v>1008994.2204812</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>89</v>
+      </c>
+      <c r="C298">
+        <v>1017764.27778846</v>
+      </c>
+      <c r="E298" t="s">
+        <v>56</v>
+      </c>
+      <c r="F298" s="3">
+        <v>334751.74805329699</v>
+      </c>
+      <c r="G298" s="3">
+        <f t="shared" si="0"/>
+        <v>1022262.57957241</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
+        <v>90</v>
+      </c>
+      <c r="C299">
+        <v>1010610.9507132201</v>
+      </c>
+      <c r="E299" t="s">
+        <v>97</v>
+      </c>
+      <c r="F299" s="3">
+        <v>351103.12069315597</v>
+      </c>
+      <c r="G299" s="3">
+        <f t="shared" si="0"/>
+        <v>1049140.5915171499</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>91</v>
+      </c>
+      <c r="C300">
+        <v>996738.24393113295</v>
+      </c>
+      <c r="E300" t="s">
+        <v>98</v>
+      </c>
+      <c r="F300" s="3">
+        <v>333715.717082533</v>
+      </c>
+      <c r="G300" s="3">
+        <f t="shared" si="0"/>
+        <v>976774.65505617904</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>92</v>
+      </c>
+      <c r="C301">
+        <v>1018268.20591508</v>
+      </c>
+      <c r="E301" t="s">
+        <v>57</v>
+      </c>
+      <c r="F301" s="3">
+        <v>332368.266908844</v>
+      </c>
+      <c r="G301" s="3">
+        <f t="shared" si="0"/>
+        <v>1004813.20527967</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>93</v>
+      </c>
+      <c r="C302">
+        <v>1009206.6455685101</v>
+      </c>
+      <c r="E302" t="s">
+        <v>99</v>
+      </c>
+      <c r="F302" s="3">
+        <v>336752.29761857702</v>
+      </c>
+      <c r="G302" s="3">
+        <f t="shared" si="0"/>
+        <v>999393.91551319603</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>94</v>
+      </c>
+      <c r="C303">
+        <v>1005987.0210941799</v>
+      </c>
+      <c r="E303" t="s">
+        <v>58</v>
+      </c>
+      <c r="F303" s="3">
+        <v>329778.08866608102</v>
+      </c>
+      <c r="G303" s="3">
+        <f t="shared" si="0"/>
+        <v>1014256.76662618</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>95</v>
+      </c>
+      <c r="C304">
+        <v>1019043.44386554</v>
+      </c>
+      <c r="E304" t="s">
+        <v>59</v>
+      </c>
+      <c r="F304" s="3">
+        <v>339452.83022759599</v>
+      </c>
+      <c r="G304" s="3">
+        <f t="shared" si="0"/>
+        <v>1009740.50627644</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>96</v>
+      </c>
+      <c r="C305">
+        <v>1008994.2204812</v>
+      </c>
+      <c r="E305" t="s">
+        <v>100</v>
+      </c>
+      <c r="F305" s="3">
+        <v>347331.50626054301</v>
+      </c>
+      <c r="G305" s="3">
+        <f t="shared" si="0"/>
+        <v>1046900.3310169399</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>97</v>
+      </c>
+      <c r="C306">
+        <v>1049140.5915171499</v>
+      </c>
+      <c r="E306" t="s">
+        <v>60</v>
+      </c>
+      <c r="F306" s="3">
+        <v>339451.20116085297</v>
+      </c>
+      <c r="G306" s="3">
+        <f t="shared" ref="G306:G310" si="1">VLOOKUP(E306,$B$240:$C$310,2,0)</f>
+        <v>1020478.49363067</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>98</v>
+      </c>
+      <c r="C307">
+        <v>976774.65505617904</v>
+      </c>
+      <c r="E307" t="s">
+        <v>61</v>
+      </c>
+      <c r="F307" s="3">
+        <v>333207.35797266499</v>
+      </c>
+      <c r="G307" s="3">
+        <f t="shared" si="1"/>
+        <v>999166.87260928901</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>99</v>
+      </c>
+      <c r="C308">
+        <v>999393.91551319603</v>
+      </c>
+      <c r="E308" t="s">
+        <v>62</v>
+      </c>
+      <c r="F308" s="3">
+        <v>332833.98399641499</v>
+      </c>
+      <c r="G308" s="3">
+        <f t="shared" si="1"/>
+        <v>1020447.04983516</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>100</v>
+      </c>
+      <c r="C309">
+        <v>1046900.3310169399</v>
+      </c>
+      <c r="E309" t="s">
+        <v>101</v>
+      </c>
+      <c r="F309" s="3">
+        <v>334114.92096432002</v>
+      </c>
+      <c r="G309" s="3">
+        <f t="shared" si="1"/>
+        <v>989934.78011428495</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>101</v>
+      </c>
+      <c r="C310">
+        <v>989934.78011428495</v>
+      </c>
+      <c r="E310" t="s">
+        <v>63</v>
+      </c>
+      <c r="F310" s="3">
+        <v>336865.51863033097</v>
+      </c>
+      <c r="G310" s="3">
+        <f t="shared" si="1"/>
+        <v>999699.35908579396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789C5D20-18D9-C349-9EA7-BB0EC9886512}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>